--- a/Filtered_By_Region/Region VIII/Region VIII_LMS.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD89"/>
+  <dimension ref="A1:BE89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -751,7 +757,6 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
@@ -774,10 +779,10 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <v>44546</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44546</v>
       </c>
       <c r="Q2" t="n">
@@ -879,18 +884,11 @@
       <c r="AU2" t="n">
         <v>1</v>
       </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -938,7 +936,6 @@
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>21598532.41</v>
       </c>
@@ -950,10 +947,10 @@
       <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>44546</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44546</v>
       </c>
       <c r="Q3" t="n">
@@ -1055,18 +1052,11 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1230,19 +1220,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1406,19 +1388,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
@@ -1582,19 +1556,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>0</v>
       </c>
@@ -1758,19 +1724,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
@@ -1934,19 +1892,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2121,18 +2071,11 @@
       <c r="AU9" t="n">
         <v>1</v>
       </c>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2307,18 +2250,11 @@
       <c r="AU10" t="n">
         <v>1</v>
       </c>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2355,7 +2291,6 @@
       <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>2</v>
       </c>
@@ -2364,7 +2299,6 @@
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -2489,18 +2423,11 @@
       <c r="AU11" t="n">
         <v>1</v>
       </c>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2672,19 +2599,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2746,10 +2665,10 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>44539</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>44539</v>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2861,18 +2780,11 @@
       <c r="AU13" t="n">
         <v>1</v>
       </c>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -2934,10 +2846,10 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>44539</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>44539</v>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3049,18 +2961,11 @@
       <c r="AU14" t="n">
         <v>1</v>
       </c>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3122,10 +3027,10 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>44539</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>44539</v>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3234,19 +3139,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3308,10 +3205,10 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="3" t="n">
         <v>44540</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>44540</v>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3417,18 +3314,11 @@
       <c r="AU16" t="n">
         <v>1</v>
       </c>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3490,10 +3380,10 @@
       <c r="N17" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="3" t="n">
         <v>44646</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="3" t="n">
         <v>44664</v>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3599,18 +3489,11 @@
       <c r="AU17" t="n">
         <v>1</v>
       </c>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>1</v>
       </c>
@@ -3672,10 +3555,10 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>44563</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>44747</v>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3781,18 +3664,11 @@
       <c r="AU18" t="n">
         <v>1</v>
       </c>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>0</v>
       </c>
@@ -3829,7 +3705,6 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>2</v>
       </c>
@@ -3838,7 +3713,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>19879801.57</v>
       </c>
@@ -3850,10 +3724,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>44563</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>44747</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3959,18 +3833,11 @@
       <c r="AU19" t="n">
         <v>1</v>
       </c>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
@@ -4032,10 +3899,10 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>44563</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>44747</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4141,18 +4008,11 @@
       <c r="AU20" t="n">
         <v>1</v>
       </c>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>1</v>
       </c>
@@ -4214,10 +4074,10 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>44548</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>44691</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4320,19 +4180,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>1</v>
       </c>
@@ -4496,19 +4348,11 @@
       <c r="AT22" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4669,20 +4513,12 @@
       <c r="AS23" t="n">
         <v>0</v>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="n">
         <v>0</v>
       </c>
       <c r="AW23" t="n">
         <v>1</v>
       </c>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -4861,20 +4697,12 @@
       <c r="AS24" t="n">
         <v>0</v>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -5035,20 +4863,12 @@
       <c r="AS25" t="n">
         <v>0</v>
       </c>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="n">
         <v>0</v>
       </c>
       <c r="AW25" t="n">
         <v>1</v>
       </c>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>1</v>
       </c>
@@ -5212,21 +5032,14 @@
       <c r="AT26" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="n">
         <v>1</v>
       </c>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="n">
         <v>1</v>
       </c>
@@ -5390,21 +5203,14 @@
       <c r="AT27" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="n">
         <v>1</v>
       </c>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
         <v>1</v>
       </c>
@@ -5473,7 +5279,7 @@
           <t>c/o CO</t>
         </is>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>45414</v>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5584,19 +5390,11 @@
       <c r="AT28" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="n">
         <v>1</v>
       </c>
@@ -5663,7 +5461,7 @@
           <t>c/o CO</t>
         </is>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5774,19 +5572,11 @@
       <c r="AT29" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="n">
         <v>0</v>
       </c>
@@ -5823,7 +5613,6 @@
       <c r="G30" t="n">
         <v>4</v>
       </c>
-      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>2</v>
       </c>
@@ -5851,7 +5640,7 @@
           <t>c/o CO</t>
         </is>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45121</v>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5962,19 +5751,12 @@
       <c r="AT30" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="n">
         <v>0</v>
       </c>
       <c r="AW30" t="n">
         <v>0</v>
       </c>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="n">
         <v>0</v>
       </c>
@@ -6153,20 +5935,12 @@
       <c r="AS31" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="n">
         <v>0</v>
       </c>
       <c r="AW31" t="n">
         <v>1</v>
       </c>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="n">
         <v>1</v>
       </c>
@@ -6348,23 +6122,17 @@
       <c r="AT32" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="n">
         <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>1</v>
       </c>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
       <c r="BD32" t="n">
         <v>0</v>
       </c>
@@ -6426,10 +6194,10 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45413</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45468</v>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6530,23 +6298,17 @@
       <c r="AT33" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="n">
         <v>0</v>
       </c>
       <c r="AW33" t="n">
         <v>1</v>
       </c>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="n">
         <v>1</v>
       </c>
@@ -6608,10 +6370,10 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45310</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>45366</v>
       </c>
       <c r="Q34" t="n">
@@ -6710,21 +6472,14 @@
       <c r="AT34" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="n">
         <v>1</v>
       </c>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +6541,7 @@
       <c r="N35" t="n">
         <v>1</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45381</v>
       </c>
       <c r="P35" t="inlineStr">
@@ -6890,21 +6645,14 @@
       <c r="AT35" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="n">
         <v>1</v>
       </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="n">
         <v>1</v>
       </c>
@@ -6966,7 +6714,7 @@
       <c r="N36" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45381</v>
       </c>
       <c r="P36" t="inlineStr">
@@ -7070,21 +6818,14 @@
       <c r="AT36" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="n">
         <v>1</v>
       </c>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="n">
         <v>1</v>
       </c>
@@ -7246,19 +6987,11 @@
       <c r="AT37" t="n">
         <v>3.23</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="n">
         <v>1</v>
       </c>
@@ -7320,10 +7053,10 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45050</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="Q38" t="inlineStr">
@@ -7424,21 +7157,14 @@
       <c r="AT38" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="n">
         <v>1</v>
       </c>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="n">
         <v>1</v>
       </c>
@@ -7500,10 +7226,10 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>45050</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7604,21 +7330,14 @@
       <c r="AT39" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="n">
         <v>1</v>
       </c>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="n">
         <v>1</v>
       </c>
@@ -7680,10 +7399,10 @@
       <c r="N40" t="n">
         <v>1</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45107</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>45115</v>
       </c>
       <c r="Q40" t="inlineStr">
@@ -7784,21 +7503,14 @@
       <c r="AT40" t="n">
         <v>1.24</v>
       </c>
-      <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="n">
         <v>1</v>
       </c>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="n">
         <v>1</v>
       </c>
@@ -7860,10 +7572,10 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="O41" s="3" t="n">
         <v>45107</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>45324</v>
       </c>
       <c r="Q41" t="inlineStr">
@@ -7964,23 +7676,17 @@
       <c r="AT41" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="n">
         <v>0</v>
       </c>
       <c r="AW41" t="n">
         <v>1</v>
       </c>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="n">
         <v>1</v>
       </c>
@@ -8042,10 +7748,10 @@
       <c r="N42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="O42" s="3" t="n">
         <v>45044</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="3" t="n">
         <v>45044</v>
       </c>
       <c r="Q42" t="inlineStr">
@@ -8146,21 +7852,14 @@
       <c r="AT42" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="n">
         <v>1</v>
       </c>
-      <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="n">
         <v>1</v>
       </c>
@@ -8222,10 +7921,10 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="O43" s="3" t="n">
         <v>45332</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8326,19 +8025,12 @@
       <c r="AT43" t="n">
         <v>10.24</v>
       </c>
-      <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="n">
         <v>0</v>
       </c>
       <c r="AW43" t="n">
         <v>1</v>
       </c>
-      <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="n">
         <v>1</v>
       </c>
@@ -8400,10 +8092,10 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" s="2" t="n">
+      <c r="O44" s="3" t="n">
         <v>45095</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>45095</v>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8504,23 +8196,17 @@
       <c r="AT44" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="n">
         <v>0</v>
       </c>
       <c r="AW44" t="n">
         <v>1</v>
       </c>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="n">
         <v>1</v>
       </c>
@@ -8571,7 +8257,6 @@
       <c r="K45" t="n">
         <v>17471692.6459</v>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8580,16 +8265,6 @@
       <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
           <t>Cancelled</t>
@@ -8658,19 +8333,12 @@
       <c r="AT45" t="n">
         <v>10.24</v>
       </c>
-      <c r="AU45" t="inlineStr"/>
       <c r="AV45" t="n">
         <v>0</v>
       </c>
       <c r="AW45" t="n">
         <v>1</v>
       </c>
-      <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="inlineStr"/>
-      <c r="AZ45" t="inlineStr"/>
-      <c r="BA45" t="inlineStr"/>
-      <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="n">
         <v>1</v>
       </c>
@@ -8732,10 +8400,10 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46" s="2" t="n">
+      <c r="O46" s="3" t="n">
         <v>45084</v>
       </c>
-      <c r="P46" s="2" t="n">
+      <c r="P46" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="Q46" t="inlineStr">
@@ -8836,23 +8504,17 @@
       <c r="AT46" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="n">
         <v>0</v>
       </c>
       <c r="AW46" t="n">
         <v>1</v>
       </c>
-      <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
-      <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="n">
         <v>1</v>
       </c>
@@ -8914,10 +8576,10 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47" s="2" t="n">
+      <c r="O47" s="3" t="n">
         <v>45049</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="P47" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="Q47" t="inlineStr">
@@ -9018,19 +8680,11 @@
       <c r="AT47" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="inlineStr"/>
-      <c r="AX47" t="inlineStr"/>
-      <c r="AY47" t="inlineStr"/>
-      <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="n">
         <v>1</v>
       </c>
@@ -9092,10 +8746,10 @@
       <c r="N48" t="n">
         <v>1</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="O48" s="3" t="n">
         <v>44898</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>44907</v>
       </c>
       <c r="Q48" t="inlineStr">
@@ -9198,19 +8852,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU48" t="inlineStr"/>
-      <c r="AV48" t="inlineStr"/>
-      <c r="AW48" t="inlineStr"/>
-      <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="inlineStr"/>
-      <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="n">
         <v>1</v>
       </c>
@@ -9272,10 +8918,10 @@
       <c r="N49" t="n">
         <v>1</v>
       </c>
-      <c r="O49" s="2" t="n">
+      <c r="O49" s="3" t="n">
         <v>45123</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9376,21 +9022,14 @@
       <c r="AT49" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="n">
         <v>1</v>
       </c>
-      <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="inlineStr"/>
-      <c r="AY49" t="inlineStr"/>
-      <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="n">
         <v>1</v>
       </c>
@@ -9452,10 +9091,10 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50" s="2" t="n">
+      <c r="O50" s="3" t="n">
         <v>44956</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="P50" s="3" t="n">
         <v>45009</v>
       </c>
       <c r="Q50" t="inlineStr">
@@ -9556,21 +9195,14 @@
       <c r="AT50" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="n">
         <v>1</v>
       </c>
-      <c r="AW50" t="inlineStr"/>
-      <c r="AX50" t="inlineStr"/>
-      <c r="AY50" t="inlineStr"/>
-      <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="n">
         <v>1</v>
       </c>
@@ -9632,10 +9264,10 @@
       <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O51" s="2" t="n">
+      <c r="O51" s="3" t="n">
         <v>44963</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="P51" s="3" t="n">
         <v>44952</v>
       </c>
       <c r="Q51" t="inlineStr">
@@ -9736,23 +9368,17 @@
       <c r="AT51" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="n">
         <v>0</v>
       </c>
       <c r="AW51" t="n">
         <v>1</v>
       </c>
-      <c r="AX51" t="inlineStr"/>
-      <c r="AY51" t="inlineStr"/>
-      <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="n">
         <v>1</v>
       </c>
@@ -9814,10 +9440,10 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" s="2" t="n">
+      <c r="O52" s="3" t="n">
         <v>44963</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P52" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="Q52" t="inlineStr">
@@ -9918,23 +9544,17 @@
       <c r="AT52" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="n">
         <v>0</v>
       </c>
       <c r="AW52" t="n">
         <v>1</v>
       </c>
-      <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="inlineStr"/>
-      <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="inlineStr"/>
       <c r="BD52" t="n">
         <v>1</v>
       </c>
@@ -9996,10 +9616,10 @@
       <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" s="2" t="n">
+      <c r="O53" s="3" t="n">
         <v>44916</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="3" t="n">
         <v>44994</v>
       </c>
       <c r="Q53" t="inlineStr">
@@ -10102,19 +9722,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="inlineStr"/>
-      <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="inlineStr"/>
-      <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="n">
         <v>1</v>
       </c>
@@ -10176,10 +9788,10 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54" s="2" t="n">
+      <c r="O54" s="3" t="n">
         <v>45303</v>
       </c>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="3" t="n">
         <v>45373</v>
       </c>
       <c r="Q54" t="inlineStr">
@@ -10291,9 +9903,6 @@
       <c r="AW54" t="n">
         <v>1</v>
       </c>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="inlineStr"/>
-      <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -10302,7 +9911,6 @@
       <c r="BB54" t="n">
         <v>1</v>
       </c>
-      <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="n">
         <v>1</v>
       </c>
@@ -10475,9 +10083,6 @@
       <c r="AW55" t="n">
         <v>1</v>
       </c>
-      <c r="AX55" t="inlineStr"/>
-      <c r="AY55" t="inlineStr"/>
-      <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -10486,7 +10091,6 @@
       <c r="BB55" t="n">
         <v>1</v>
       </c>
-      <c r="BC55" t="inlineStr"/>
       <c r="BD55" t="n">
         <v>1</v>
       </c>
@@ -10659,9 +10263,6 @@
       <c r="AW56" t="n">
         <v>1</v>
       </c>
-      <c r="AX56" t="inlineStr"/>
-      <c r="AY56" t="inlineStr"/>
-      <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -10670,7 +10271,6 @@
       <c r="BB56" t="n">
         <v>1</v>
       </c>
-      <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="n">
         <v>1</v>
       </c>
@@ -10732,10 +10332,10 @@
       <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="O57" s="2" t="n">
+      <c r="O57" s="3" t="n">
         <v>45274</v>
       </c>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="3" t="n">
         <v>45268</v>
       </c>
       <c r="Q57" t="inlineStr">
@@ -10845,9 +10445,6 @@
       <c r="AW57" t="n">
         <v>1</v>
       </c>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -10856,7 +10453,6 @@
       <c r="BB57" t="n">
         <v>1</v>
       </c>
-      <c r="BC57" t="inlineStr"/>
       <c r="BD57" t="n">
         <v>1</v>
       </c>
@@ -10918,10 +10514,10 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58" s="2" t="n">
+      <c r="O58" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="P58" s="2" t="n">
+      <c r="P58" s="3" t="n">
         <v>45349</v>
       </c>
       <c r="Q58" t="inlineStr">
@@ -11031,9 +10627,6 @@
       <c r="AW58" t="n">
         <v>1</v>
       </c>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -11042,7 +10635,6 @@
       <c r="BB58" t="n">
         <v>1</v>
       </c>
-      <c r="BC58" t="inlineStr"/>
       <c r="BD58" t="n">
         <v>1</v>
       </c>
@@ -11104,10 +10696,10 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59" s="2" t="n">
+      <c r="O59" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="P59" s="2" t="n">
+      <c r="P59" s="3" t="n">
         <v>45349</v>
       </c>
       <c r="Q59" t="inlineStr">
@@ -11217,9 +10809,6 @@
       <c r="AW59" t="n">
         <v>1</v>
       </c>
-      <c r="AX59" t="inlineStr"/>
-      <c r="AY59" t="inlineStr"/>
-      <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -11228,7 +10817,6 @@
       <c r="BB59" t="n">
         <v>1</v>
       </c>
-      <c r="BC59" t="inlineStr"/>
       <c r="BD59" t="n">
         <v>1</v>
       </c>
@@ -11290,10 +10878,10 @@
       <c r="N60" t="n">
         <v>1</v>
       </c>
-      <c r="O60" s="2" t="n">
+      <c r="O60" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>45349</v>
       </c>
       <c r="Q60" t="inlineStr">
@@ -11403,9 +10991,6 @@
       <c r="AW60" t="n">
         <v>1</v>
       </c>
-      <c r="AX60" t="inlineStr"/>
-      <c r="AY60" t="inlineStr"/>
-      <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -11414,7 +10999,6 @@
       <c r="BB60" t="n">
         <v>1</v>
       </c>
-      <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="n">
         <v>1</v>
       </c>
@@ -11476,10 +11060,10 @@
       <c r="N61" t="n">
         <v>1</v>
       </c>
-      <c r="O61" s="2" t="n">
+      <c r="O61" s="3" t="n">
         <v>45308</v>
       </c>
-      <c r="P61" s="2" t="n">
+      <c r="P61" s="3" t="n">
         <v>45383</v>
       </c>
       <c r="Q61" t="inlineStr">
@@ -11589,9 +11173,6 @@
       <c r="AW61" t="n">
         <v>1</v>
       </c>
-      <c r="AX61" t="inlineStr"/>
-      <c r="AY61" t="inlineStr"/>
-      <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -11600,7 +11181,6 @@
       <c r="BB61" t="n">
         <v>1</v>
       </c>
-      <c r="BC61" t="inlineStr"/>
       <c r="BD61" t="n">
         <v>1</v>
       </c>
@@ -11662,10 +11242,10 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62" s="2" t="n">
+      <c r="O62" s="3" t="n">
         <v>45291</v>
       </c>
-      <c r="P62" s="2" t="n">
+      <c r="P62" s="3" t="n">
         <v>45390</v>
       </c>
       <c r="Q62" t="inlineStr">
@@ -11775,9 +11355,6 @@
       <c r="AW62" t="n">
         <v>1</v>
       </c>
-      <c r="AX62" t="inlineStr"/>
-      <c r="AY62" t="inlineStr"/>
-      <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -11786,7 +11363,6 @@
       <c r="BB62" t="n">
         <v>1</v>
       </c>
-      <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="n">
         <v>1</v>
       </c>
@@ -11848,10 +11424,10 @@
       <c r="N63" t="n">
         <v>1</v>
       </c>
-      <c r="O63" s="2" t="n">
+      <c r="O63" s="3" t="n">
         <v>45358</v>
       </c>
-      <c r="P63" s="2" t="n">
+      <c r="P63" s="3" t="n">
         <v>45596</v>
       </c>
       <c r="Q63" t="inlineStr">
@@ -11963,14 +11539,9 @@
       <c r="AW63" t="n">
         <v>1</v>
       </c>
-      <c r="AX63" t="inlineStr"/>
-      <c r="AY63" t="inlineStr"/>
-      <c r="AZ63" t="inlineStr"/>
-      <c r="BA63" t="inlineStr"/>
       <c r="BB63" t="n">
         <v>1</v>
       </c>
-      <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="n">
         <v>1</v>
       </c>
@@ -12032,10 +11603,10 @@
       <c r="N64" t="n">
         <v>1</v>
       </c>
-      <c r="O64" s="2" t="n">
+      <c r="O64" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="P64" s="2" t="n">
+      <c r="P64" s="3" t="n">
         <v>45422</v>
       </c>
       <c r="Q64" t="inlineStr">
@@ -12147,14 +11718,9 @@
       <c r="AW64" t="n">
         <v>1</v>
       </c>
-      <c r="AX64" t="inlineStr"/>
-      <c r="AY64" t="inlineStr"/>
-      <c r="AZ64" t="inlineStr"/>
-      <c r="BA64" t="inlineStr"/>
       <c r="BB64" t="n">
         <v>1</v>
       </c>
-      <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="n">
         <v>1</v>
       </c>
@@ -12216,10 +11782,10 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65" s="2" t="n">
+      <c r="O65" s="3" t="n">
         <v>45347</v>
       </c>
-      <c r="P65" s="2" t="n">
+      <c r="P65" s="3" t="n">
         <v>45400</v>
       </c>
       <c r="Q65" t="inlineStr">
@@ -12331,14 +11897,9 @@
       <c r="AW65" t="n">
         <v>1</v>
       </c>
-      <c r="AX65" t="inlineStr"/>
-      <c r="AY65" t="inlineStr"/>
-      <c r="AZ65" t="inlineStr"/>
-      <c r="BA65" t="inlineStr"/>
       <c r="BB65" t="n">
         <v>1</v>
       </c>
-      <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="n">
         <v>1</v>
       </c>
@@ -12400,10 +11961,10 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66" s="2" t="n">
+      <c r="O66" s="3" t="n">
         <v>45316</v>
       </c>
-      <c r="P66" s="2" t="n">
+      <c r="P66" s="3" t="n">
         <v>45315</v>
       </c>
       <c r="Q66" t="inlineStr">
@@ -12515,9 +12076,6 @@
       <c r="AW66" t="n">
         <v>1</v>
       </c>
-      <c r="AX66" t="inlineStr"/>
-      <c r="AY66" t="inlineStr"/>
-      <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -12526,7 +12084,6 @@
       <c r="BB66" t="n">
         <v>1</v>
       </c>
-      <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="n">
         <v>1</v>
       </c>
@@ -12588,10 +12145,10 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67" s="2" t="n">
+      <c r="O67" s="3" t="n">
         <v>45286</v>
       </c>
-      <c r="P67" s="2" t="n">
+      <c r="P67" s="3" t="n">
         <v>45282</v>
       </c>
       <c r="Q67" t="inlineStr">
@@ -12703,9 +12260,6 @@
       <c r="AW67" t="n">
         <v>1</v>
       </c>
-      <c r="AX67" t="inlineStr"/>
-      <c r="AY67" t="inlineStr"/>
-      <c r="AZ67" t="inlineStr"/>
       <c r="BA67" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -12714,7 +12268,6 @@
       <c r="BB67" t="n">
         <v>1</v>
       </c>
-      <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="n">
         <v>1</v>
       </c>
@@ -12776,10 +12329,10 @@
       <c r="N68" t="n">
         <v>1</v>
       </c>
-      <c r="O68" s="2" t="n">
+      <c r="O68" s="3" t="n">
         <v>45316</v>
       </c>
-      <c r="P68" s="2" t="n">
+      <c r="P68" s="3" t="n">
         <v>45396</v>
       </c>
       <c r="Q68" t="inlineStr">
@@ -12891,9 +12444,6 @@
       <c r="AW68" t="n">
         <v>1</v>
       </c>
-      <c r="AX68" t="inlineStr"/>
-      <c r="AY68" t="inlineStr"/>
-      <c r="AZ68" t="inlineStr"/>
       <c r="BA68" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -12902,7 +12452,6 @@
       <c r="BB68" t="n">
         <v>1</v>
       </c>
-      <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="n">
         <v>1</v>
       </c>
@@ -12964,10 +12513,10 @@
       <c r="N69" t="n">
         <v>1</v>
       </c>
-      <c r="O69" s="2" t="n">
+      <c r="O69" s="3" t="n">
         <v>45276</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>45386</v>
       </c>
       <c r="Q69" t="inlineStr">
@@ -13079,9 +12628,6 @@
       <c r="AW69" t="n">
         <v>1</v>
       </c>
-      <c r="AX69" t="inlineStr"/>
-      <c r="AY69" t="inlineStr"/>
-      <c r="AZ69" t="inlineStr"/>
       <c r="BA69" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -13090,7 +12636,6 @@
       <c r="BB69" t="n">
         <v>1</v>
       </c>
-      <c r="BC69" t="inlineStr"/>
       <c r="BD69" t="n">
         <v>1</v>
       </c>
@@ -13154,10 +12699,10 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70" s="2" t="n">
+      <c r="O70" s="3" t="n">
         <v>45717</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="Q70" t="inlineStr">
@@ -13258,14 +12803,6 @@
       <c r="AT70" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU70" t="inlineStr"/>
-      <c r="AV70" t="inlineStr"/>
-      <c r="AW70" t="inlineStr"/>
-      <c r="AX70" t="inlineStr"/>
-      <c r="AY70" t="inlineStr"/>
-      <c r="AZ70" t="inlineStr"/>
-      <c r="BA70" t="inlineStr"/>
-      <c r="BB70" t="inlineStr"/>
       <c r="BC70" t="inlineStr">
         <is>
           <t>4th</t>
@@ -13334,10 +12871,10 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71" s="2" t="n">
+      <c r="O71" s="3" t="n">
         <v>45695</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>45695</v>
       </c>
       <c r="Q71" t="inlineStr">
@@ -13438,14 +12975,6 @@
       <c r="AT71" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU71" t="inlineStr"/>
-      <c r="AV71" t="inlineStr"/>
-      <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
       <c r="BC71" t="inlineStr">
         <is>
           <t>1st</t>
@@ -13514,10 +13043,10 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
-      <c r="O72" s="2" t="n">
+      <c r="O72" s="3" t="n">
         <v>45602</v>
       </c>
-      <c r="P72" s="2" t="n">
+      <c r="P72" s="3" t="n">
         <v>45602</v>
       </c>
       <c r="Q72" t="inlineStr">
@@ -13618,14 +13147,6 @@
       <c r="AT72" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU72" t="inlineStr"/>
-      <c r="AV72" t="inlineStr"/>
-      <c r="AW72" t="inlineStr"/>
-      <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -13694,7 +13215,7 @@
       <c r="N73" t="n">
         <v>0.78</v>
       </c>
-      <c r="O73" s="2" t="n">
+      <c r="O73" s="3" t="n">
         <v>45669</v>
       </c>
       <c r="P73" t="inlineStr">
@@ -13797,15 +13318,6 @@
       <c r="AS73" t="n">
         <v>0.42</v>
       </c>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="inlineStr"/>
-      <c r="AV73" t="inlineStr"/>
-      <c r="AW73" t="inlineStr"/>
-      <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
-      <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
       <c r="BC73" t="inlineStr">
         <is>
           <t>1st</t>
@@ -13874,10 +13386,10 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
-      <c r="O74" s="2" t="n">
+      <c r="O74" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="P74" s="2" t="n">
+      <c r="P74" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q74" t="inlineStr">
@@ -13978,14 +13490,6 @@
       <c r="AT74" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU74" t="inlineStr"/>
-      <c r="AV74" t="inlineStr"/>
-      <c r="AW74" t="inlineStr"/>
-      <c r="AX74" t="inlineStr"/>
-      <c r="AY74" t="inlineStr"/>
-      <c r="AZ74" t="inlineStr"/>
-      <c r="BA74" t="inlineStr"/>
-      <c r="BB74" t="inlineStr"/>
       <c r="BC74" t="inlineStr">
         <is>
           <t>1st</t>
@@ -14054,10 +13558,10 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75" s="2" t="n">
+      <c r="O75" s="3" t="n">
         <v>45669</v>
       </c>
-      <c r="P75" s="2" t="n">
+      <c r="P75" s="3" t="n">
         <v>45615</v>
       </c>
       <c r="Q75" t="inlineStr">
@@ -14158,14 +13662,6 @@
       <c r="AT75" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU75" t="inlineStr"/>
-      <c r="AV75" t="inlineStr"/>
-      <c r="AW75" t="inlineStr"/>
-      <c r="AX75" t="inlineStr"/>
-      <c r="AY75" t="inlineStr"/>
-      <c r="AZ75" t="inlineStr"/>
-      <c r="BA75" t="inlineStr"/>
-      <c r="BB75" t="inlineStr"/>
       <c r="BC75" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -14236,10 +13732,10 @@
           <t>62%%</t>
         </is>
       </c>
-      <c r="O76" s="2" t="n">
+      <c r="O76" s="3" t="n">
         <v>45777</v>
       </c>
-      <c r="P76" s="2" t="n">
+      <c r="P76" s="3" t="n">
         <v>45837</v>
       </c>
       <c r="Q76" t="inlineStr">
@@ -14334,16 +13830,6 @@
       <c r="AR76" t="n">
         <v>0.62</v>
       </c>
-      <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
-      <c r="AU76" t="inlineStr"/>
-      <c r="AV76" t="inlineStr"/>
-      <c r="AW76" t="inlineStr"/>
-      <c r="AX76" t="inlineStr"/>
-      <c r="AY76" t="inlineStr"/>
-      <c r="AZ76" t="inlineStr"/>
-      <c r="BA76" t="inlineStr"/>
-      <c r="BB76" t="inlineStr"/>
       <c r="BC76" t="inlineStr">
         <is>
           <t>4th</t>
@@ -14412,7 +13898,7 @@
       <c r="N77" t="n">
         <v>0.64</v>
       </c>
-      <c r="O77" s="2" t="n">
+      <c r="O77" s="3" t="n">
         <v>45676</v>
       </c>
       <c r="P77" t="inlineStr">
@@ -14513,15 +13999,6 @@
       <c r="AS77" t="n">
         <v>0</v>
       </c>
-      <c r="AT77" t="inlineStr"/>
-      <c r="AU77" t="inlineStr"/>
-      <c r="AV77" t="inlineStr"/>
-      <c r="AW77" t="inlineStr"/>
-      <c r="AX77" t="inlineStr"/>
-      <c r="AY77" t="inlineStr"/>
-      <c r="AZ77" t="inlineStr"/>
-      <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
       <c r="BC77" t="inlineStr">
         <is>
           <t>5th</t>
@@ -14595,7 +14072,6 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
           <t>CY2024 BEFF_LAST MILE SCHOOLS PROGRAM_LOT No.1</t>
@@ -14689,15 +14165,6 @@
       <c r="AS78" t="n">
         <v>0.15</v>
       </c>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
-      <c r="AV78" t="inlineStr"/>
-      <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
-      <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="inlineStr"/>
-      <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
       <c r="BC78" t="inlineStr">
         <is>
           <t>4th</t>
@@ -14771,7 +14238,6 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t>CY 2024 LAST MILE SCHOOLS_Lot No.3</t>
@@ -14867,10 +14333,6 @@
       <c r="AS79" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AT79" t="inlineStr"/>
-      <c r="AU79" t="inlineStr"/>
-      <c r="AV79" t="inlineStr"/>
-      <c r="AW79" t="inlineStr"/>
       <c r="AX79" t="n">
         <v>1</v>
       </c>
@@ -14880,8 +14342,6 @@
       <c r="AZ79" t="n">
         <v>17325083.74</v>
       </c>
-      <c r="BA79" t="inlineStr"/>
-      <c r="BB79" t="inlineStr"/>
       <c r="BC79" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -14950,10 +14410,10 @@
       <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="O80" s="2" t="n">
+      <c r="O80" s="3" t="n">
         <v>45611</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>45637</v>
       </c>
       <c r="Q80" t="inlineStr">
@@ -15052,14 +14512,6 @@
       <c r="AT80" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU80" t="inlineStr"/>
-      <c r="AV80" t="inlineStr"/>
-      <c r="AW80" t="inlineStr"/>
-      <c r="AX80" t="inlineStr"/>
-      <c r="AY80" t="inlineStr"/>
-      <c r="AZ80" t="inlineStr"/>
-      <c r="BA80" t="inlineStr"/>
-      <c r="BB80" t="inlineStr"/>
       <c r="BC80" t="inlineStr">
         <is>
           <t>4th</t>
@@ -15128,10 +14580,10 @@
       <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="O81" s="2" t="n">
+      <c r="O81" s="3" t="n">
         <v>45603</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>45636</v>
       </c>
       <c r="Q81" t="inlineStr">
@@ -15230,14 +14682,6 @@
       <c r="AT81" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU81" t="inlineStr"/>
-      <c r="AV81" t="inlineStr"/>
-      <c r="AW81" t="inlineStr"/>
-      <c r="AX81" t="inlineStr"/>
-      <c r="AY81" t="inlineStr"/>
-      <c r="AZ81" t="inlineStr"/>
-      <c r="BA81" t="inlineStr"/>
-      <c r="BB81" t="inlineStr"/>
       <c r="BC81" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -15306,10 +14750,9 @@
       <c r="N82" t="n">
         <v>0.98</v>
       </c>
-      <c r="O82" s="2" t="n">
+      <c r="O82" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
           <t>INFRA-2024-01</t>
@@ -15405,15 +14848,6 @@
       <c r="AS82" t="n">
         <v>0.13</v>
       </c>
-      <c r="AT82" t="inlineStr"/>
-      <c r="AU82" t="inlineStr"/>
-      <c r="AV82" t="inlineStr"/>
-      <c r="AW82" t="inlineStr"/>
-      <c r="AX82" t="inlineStr"/>
-      <c r="AY82" t="inlineStr"/>
-      <c r="AZ82" t="inlineStr"/>
-      <c r="BA82" t="inlineStr"/>
-      <c r="BB82" t="inlineStr"/>
       <c r="BC82" t="inlineStr">
         <is>
           <t>1st</t>
@@ -15482,7 +14916,7 @@
       <c r="N83" t="n">
         <v>0.95</v>
       </c>
-      <c r="O83" s="2" t="n">
+      <c r="O83" s="3" t="n">
         <v>45746</v>
       </c>
       <c r="P83" t="inlineStr">
@@ -15585,15 +15019,6 @@
       <c r="AS83" t="n">
         <v>0.95</v>
       </c>
-      <c r="AT83" t="inlineStr"/>
-      <c r="AU83" t="inlineStr"/>
-      <c r="AV83" t="inlineStr"/>
-      <c r="AW83" t="inlineStr"/>
-      <c r="AX83" t="inlineStr"/>
-      <c r="AY83" t="inlineStr"/>
-      <c r="AZ83" t="inlineStr"/>
-      <c r="BA83" t="inlineStr"/>
-      <c r="BB83" t="inlineStr"/>
       <c r="BC83" t="inlineStr">
         <is>
           <t>1st</t>
@@ -15765,15 +15190,6 @@
       <c r="AS84" t="n">
         <v>0</v>
       </c>
-      <c r="AT84" t="inlineStr"/>
-      <c r="AU84" t="inlineStr"/>
-      <c r="AV84" t="inlineStr"/>
-      <c r="AW84" t="inlineStr"/>
-      <c r="AX84" t="inlineStr"/>
-      <c r="AY84" t="inlineStr"/>
-      <c r="AZ84" t="inlineStr"/>
-      <c r="BA84" t="inlineStr"/>
-      <c r="BB84" t="inlineStr"/>
       <c r="BC84" t="inlineStr">
         <is>
           <t>4th</t>
@@ -15842,10 +15258,10 @@
       <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="O85" s="2" t="n">
+      <c r="O85" s="3" t="n">
         <v>45710</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>45735</v>
       </c>
       <c r="Q85" t="inlineStr">
@@ -15946,14 +15362,6 @@
       <c r="AT85" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU85" t="inlineStr"/>
-      <c r="AV85" t="inlineStr"/>
-      <c r="AW85" t="inlineStr"/>
-      <c r="AX85" t="inlineStr"/>
-      <c r="AY85" t="inlineStr"/>
-      <c r="AZ85" t="inlineStr"/>
-      <c r="BA85" t="inlineStr"/>
-      <c r="BB85" t="inlineStr"/>
       <c r="BC85" t="inlineStr">
         <is>
           <t>1st</t>
@@ -16022,10 +15430,10 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86" s="2" t="n">
+      <c r="O86" s="3" t="n">
         <v>45613</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>45719</v>
       </c>
       <c r="Q86" t="inlineStr">
@@ -16126,14 +15534,6 @@
       <c r="AT86" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU86" t="inlineStr"/>
-      <c r="AV86" t="inlineStr"/>
-      <c r="AW86" t="inlineStr"/>
-      <c r="AX86" t="inlineStr"/>
-      <c r="AY86" t="inlineStr"/>
-      <c r="AZ86" t="inlineStr"/>
-      <c r="BA86" t="inlineStr"/>
-      <c r="BB86" t="inlineStr"/>
       <c r="BC86" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -16202,10 +15602,10 @@
       <c r="N87" t="n">
         <v>1</v>
       </c>
-      <c r="O87" s="2" t="n">
+      <c r="O87" s="3" t="n">
         <v>45591</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>45672</v>
       </c>
       <c r="Q87" t="inlineStr">
@@ -16306,14 +15706,6 @@
       <c r="AT87" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU87" t="inlineStr"/>
-      <c r="AV87" t="inlineStr"/>
-      <c r="AW87" t="inlineStr"/>
-      <c r="AX87" t="inlineStr"/>
-      <c r="AY87" t="inlineStr"/>
-      <c r="AZ87" t="inlineStr"/>
-      <c r="BA87" t="inlineStr"/>
-      <c r="BB87" t="inlineStr"/>
       <c r="BC87" t="inlineStr">
         <is>
           <t>1st</t>
@@ -16382,10 +15774,10 @@
       <c r="N88" t="n">
         <v>1</v>
       </c>
-      <c r="O88" s="2" t="n">
+      <c r="O88" s="3" t="n">
         <v>45619</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>45687</v>
       </c>
       <c r="Q88" t="inlineStr">
@@ -16486,14 +15878,6 @@
       <c r="AT88" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU88" t="inlineStr"/>
-      <c r="AV88" t="inlineStr"/>
-      <c r="AW88" t="inlineStr"/>
-      <c r="AX88" t="inlineStr"/>
-      <c r="AY88" t="inlineStr"/>
-      <c r="AZ88" t="inlineStr"/>
-      <c r="BA88" t="inlineStr"/>
-      <c r="BB88" t="inlineStr"/>
       <c r="BC88" t="inlineStr">
         <is>
           <t>1st</t>
@@ -16562,10 +15946,10 @@
       <c r="N89" t="n">
         <v>1</v>
       </c>
-      <c r="O89" s="2" t="n">
+      <c r="O89" s="3" t="n">
         <v>45591</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>45672</v>
       </c>
       <c r="Q89" t="inlineStr">
@@ -16666,14 +16050,6 @@
       <c r="AT89" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU89" t="inlineStr"/>
-      <c r="AV89" t="inlineStr"/>
-      <c r="AW89" t="inlineStr"/>
-      <c r="AX89" t="inlineStr"/>
-      <c r="AY89" t="inlineStr"/>
-      <c r="AZ89" t="inlineStr"/>
-      <c r="BA89" t="inlineStr"/>
-      <c r="BB89" t="inlineStr"/>
       <c r="BC89" t="inlineStr">
         <is>
           <t>1st</t>
@@ -16681,6 +16057,79 @@
       </c>
       <c r="BD89" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE89" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region VIII/Region VIII_LMS.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_LMS.xlsx
@@ -473,7 +473,7 @@
     <col width="48" customWidth="1" min="18" max="18"/>
     <col width="31" customWidth="1" min="19" max="19"/>
     <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="16" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
     <col width="33" customWidth="1" min="22" max="22"/>
     <col width="31" customWidth="1" min="23" max="23"/>
     <col width="67" customWidth="1" min="24" max="24"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -680,19 +680,19 @@
       <c r="R2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="6" t="n">
         <v>44383</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>44393</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>44406</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>44413</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>44419</v>
       </c>
       <c r="X2" s="5" t="inlineStr">
@@ -774,19 +774,19 @@
       <c r="R3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>44383</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>44393</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>44406</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>44413</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>44419</v>
       </c>
       <c r="X3" s="5" t="inlineStr">
@@ -874,20 +874,24 @@
       <c r="R4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="5" t="n">
+      <c r="S4" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5" t="n">
-        <v>0</v>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X4" s="5" t="n">
         <v>0</v>
@@ -970,20 +974,24 @@
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="n">
+      <c r="S5" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="T5" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>0</v>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X5" s="5" t="n">
         <v>0</v>
@@ -1066,20 +1074,24 @@
       <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="S6" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="T6" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>0</v>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X6" s="5" t="n">
         <v>0</v>
@@ -1162,20 +1174,24 @@
       <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="S7" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>0</v>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X7" s="5" t="n">
         <v>0</v>
@@ -1258,20 +1274,24 @@
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="6" t="n">
         <v>44382</v>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>0</v>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X8" s="5" t="n">
         <v>0</v>
@@ -1369,11 +1389,15 @@
           <t>July 28,2021</t>
         </is>
       </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n">
-        <v>0</v>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X9" s="5" t="n">
         <v>0</v>
@@ -1473,11 +1497,15 @@
           <t>July 28,2021</t>
         </is>
       </c>
-      <c r="V10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="n">
-        <v>0</v>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X10" s="5" t="n">
         <v>0</v>
@@ -1573,11 +1601,15 @@
           <t>July 28,2021</t>
         </is>
       </c>
-      <c r="V11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5" t="n">
-        <v>0</v>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X11" s="5" t="n">
         <v>0</v>
@@ -1677,11 +1709,15 @@
           <t>July 28,2021</t>
         </is>
       </c>
-      <c r="V12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="5" t="n">
-        <v>0</v>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X12" s="5" t="n">
         <v>0</v>
@@ -2084,19 +2120,19 @@
           <t>2020 RVIII(SAMAR) LMSP-NEWCON-L2</t>
         </is>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="6" t="n">
         <v>44384</v>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>44407</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>44387</v>
       </c>
       <c r="X16" s="5" t="inlineStr">
@@ -2184,19 +2220,19 @@
           <t>2020 RVIII(SAMAR) LMSP-NEWCON-L1</t>
         </is>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="S17" s="6" t="n">
         <v>44384</v>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="T17" s="6" t="n">
         <v>44391</v>
       </c>
-      <c r="U17" s="5" t="n">
+      <c r="U17" s="6" t="n">
         <v>44403</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="6" t="n">
         <v>44407</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>44418</v>
       </c>
       <c r="X17" s="5" t="inlineStr">
@@ -2284,19 +2320,19 @@
           <t>CY2020-LMS-L1</t>
         </is>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="6" t="n">
         <v>44379</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="6" t="n">
         <v>44386</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>44402</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="X18" s="5" t="inlineStr">
@@ -2380,19 +2416,19 @@
           <t>CY2020-LMS-L1</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <v>44379</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <v>44386</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="6" t="n">
         <v>44402</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="X19" s="5" t="inlineStr">
@@ -2480,19 +2516,19 @@
           <t>CY2020-LMS-L2</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <v>44379</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <v>44386</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>44402</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="X20" s="5" t="inlineStr">
@@ -2580,19 +2616,19 @@
           <t>CY2020-LMS-L3</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <v>44379</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <v>44386</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>44398</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <v>44402</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="X21" s="5" t="inlineStr">
@@ -2680,20 +2716,30 @@
       <c r="R22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5" t="n">
-        <v>0</v>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X22" s="5" t="n">
         <v>0</v>
@@ -2778,20 +2824,30 @@
       <c r="R23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5" t="n">
-        <v>0</v>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X23" s="5" t="n">
         <v>0</v>
@@ -2992,20 +3048,30 @@
       <c r="R25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="5" t="n">
-        <v>0</v>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X25" s="5" t="n">
         <v>0</v>
@@ -3090,20 +3156,30 @@
       <c r="R26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5" t="n">
-        <v>0</v>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X26" s="5" t="n">
         <v>0</v>
@@ -3188,20 +3264,30 @@
       <c r="R27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5" t="n">
-        <v>0</v>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X27" s="5" t="n">
         <v>0</v>
@@ -3854,19 +3940,19 @@
           <t>LMS 2023CONSTRUCTION-04</t>
         </is>
       </c>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="6" t="n">
         <v>45089</v>
       </c>
-      <c r="T33" s="5" t="n">
+      <c r="T33" s="6" t="n">
         <v>45096</v>
       </c>
-      <c r="U33" s="5" t="n">
+      <c r="U33" s="6" t="n">
         <v>45110</v>
       </c>
-      <c r="V33" s="5" t="n">
+      <c r="V33" s="6" t="n">
         <v>45187</v>
       </c>
-      <c r="W33" s="5" t="n">
+      <c r="W33" s="6" t="n">
         <v>45258</v>
       </c>
       <c r="X33" s="5" t="inlineStr">
@@ -3952,19 +4038,19 @@
           <t>No. 03-2023</t>
         </is>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="6" t="n">
         <v>45028</v>
       </c>
-      <c r="T34" s="5" t="n">
+      <c r="T34" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="6" t="n">
         <v>45057</v>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="6" t="n">
         <v>45083</v>
       </c>
-      <c r="W34" s="5" t="n">
+      <c r="W34" s="6" t="n">
         <v>45093</v>
       </c>
       <c r="X34" s="5" t="inlineStr">
@@ -4054,19 +4140,19 @@
           <t>BEFF2023-RVI-022-LMS-L1</t>
         </is>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="T35" s="5" t="n">
+      <c r="T35" s="6" t="n">
         <v>45040</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="6" t="n">
         <v>45106</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="6" t="n">
         <v>45141</v>
       </c>
       <c r="X35" s="5" t="inlineStr">
@@ -4154,19 +4240,19 @@
           <t>BEFF2023-RVI-022-LMS-L2</t>
         </is>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="6" t="n">
         <v>45033</v>
       </c>
-      <c r="T36" s="5" t="n">
+      <c r="T36" s="6" t="n">
         <v>45040</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="6" t="n">
         <v>45054</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="6" t="n">
         <v>45106</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="6" t="n">
         <v>45141</v>
       </c>
       <c r="X36" s="5" t="inlineStr">
@@ -4252,20 +4338,30 @@
       <c r="R37" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5" t="n">
-        <v>0</v>
+      <c r="S37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X37" s="5" t="n">
         <v>0</v>
@@ -4348,19 +4444,19 @@
           <t>2022 - LMS (RVIII) - LEYTE - Lot 3</t>
         </is>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="6" t="n">
         <v>44839</v>
       </c>
-      <c r="T38" s="5" t="n">
+      <c r="T38" s="6" t="n">
         <v>44848</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="6" t="n">
         <v>44867</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="6" t="n">
         <v>44893</v>
       </c>
       <c r="X38" s="5" t="inlineStr">
@@ -4448,19 +4544,19 @@
           <t>2022 - LMS (RVIII) - LEYTE - Lot 4</t>
         </is>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="6" t="n">
         <v>44839</v>
       </c>
-      <c r="T39" s="5" t="n">
+      <c r="T39" s="6" t="n">
         <v>44848</v>
       </c>
-      <c r="U39" s="5" t="n">
+      <c r="U39" s="6" t="n">
         <v>44867</v>
       </c>
-      <c r="V39" s="5" t="n">
+      <c r="V39" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="W39" s="5" t="n">
+      <c r="W39" s="6" t="n">
         <v>44893</v>
       </c>
       <c r="X39" s="5" t="inlineStr">
@@ -4548,19 +4644,19 @@
           <t>2022 - LMS (RVIII) - LEYTE - Lot 1</t>
         </is>
       </c>
-      <c r="S40" s="5" t="n">
+      <c r="S40" s="6" t="n">
         <v>44839</v>
       </c>
-      <c r="T40" s="5" t="n">
+      <c r="T40" s="6" t="n">
         <v>44848</v>
       </c>
-      <c r="U40" s="5" t="n">
+      <c r="U40" s="6" t="n">
         <v>44867</v>
       </c>
-      <c r="V40" s="5" t="n">
+      <c r="V40" s="6" t="n">
         <v>44887</v>
       </c>
-      <c r="W40" s="5" t="n">
+      <c r="W40" s="6" t="n">
         <v>44890</v>
       </c>
       <c r="X40" s="5" t="inlineStr">
@@ -4648,19 +4744,19 @@
           <t>2022 - LMS (RVIII) - LEYTE - Lot 2</t>
         </is>
       </c>
-      <c r="S41" s="5" t="n">
+      <c r="S41" s="6" t="n">
         <v>44839</v>
       </c>
-      <c r="T41" s="5" t="n">
+      <c r="T41" s="6" t="n">
         <v>44848</v>
       </c>
-      <c r="U41" s="5" t="n">
+      <c r="U41" s="6" t="n">
         <v>44867</v>
       </c>
-      <c r="V41" s="5" t="n">
+      <c r="V41" s="6" t="n">
         <v>44887</v>
       </c>
-      <c r="W41" s="5" t="n">
+      <c r="W41" s="6" t="n">
         <v>44890</v>
       </c>
       <c r="X41" s="5" t="inlineStr">
@@ -4748,19 +4844,19 @@
           <t>2022 - LMS (RVIII) - LEYTE - Lot 1</t>
         </is>
       </c>
-      <c r="S42" s="5" t="n">
+      <c r="S42" s="6" t="n">
         <v>44676</v>
       </c>
-      <c r="T42" s="5" t="n">
+      <c r="T42" s="6" t="n">
         <v>44693</v>
       </c>
-      <c r="U42" s="5" t="n">
+      <c r="U42" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="V42" s="5" t="n">
+      <c r="V42" s="6" t="n">
         <v>44827</v>
       </c>
-      <c r="W42" s="5" t="n">
+      <c r="W42" s="6" t="n">
         <v>44827</v>
       </c>
       <c r="X42" s="5" t="inlineStr">
@@ -4848,19 +4944,19 @@
           <t>CY 2022 LMS2022-RVIII-NS-Batch-2-L1</t>
         </is>
       </c>
-      <c r="S43" s="5" t="n">
+      <c r="S43" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="T43" s="5" t="n">
+      <c r="T43" s="6" t="n">
         <v>45066</v>
       </c>
-      <c r="U43" s="5" t="n">
+      <c r="U43" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="V43" s="5" t="n">
+      <c r="V43" s="6" t="n">
         <v>45131</v>
       </c>
-      <c r="W43" s="5" t="n">
+      <c r="W43" s="6" t="n">
         <v>45142</v>
       </c>
       <c r="X43" s="5" t="inlineStr">
@@ -4948,19 +5044,19 @@
           <t>CY 2022 LMS2022-RVIII-NS-Batch-2-L2</t>
         </is>
       </c>
-      <c r="S44" s="5" t="n">
+      <c r="S44" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="T44" s="5" t="n">
+      <c r="T44" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="U44" s="5" t="n">
+      <c r="U44" s="6" t="n">
         <v>44908</v>
       </c>
-      <c r="V44" s="5" t="n">
+      <c r="V44" s="6" t="n">
         <v>44928</v>
       </c>
-      <c r="W44" s="5" t="n">
+      <c r="W44" s="6" t="n">
         <v>44942</v>
       </c>
       <c r="X44" s="5" t="inlineStr">
@@ -5120,19 +5216,19 @@
           <t>CY 2022 LMS2022-RVIII-NS-B1</t>
         </is>
       </c>
-      <c r="S46" s="5" t="n">
+      <c r="S46" s="6" t="n">
         <v>44888</v>
       </c>
-      <c r="T46" s="5" t="n">
+      <c r="T46" s="6" t="n">
         <v>44896</v>
       </c>
-      <c r="U46" s="5" t="n">
+      <c r="U46" s="6" t="n">
         <v>44908</v>
       </c>
-      <c r="V46" s="5" t="n">
+      <c r="V46" s="6" t="n">
         <v>44928</v>
       </c>
-      <c r="W46" s="5" t="n">
+      <c r="W46" s="6" t="n">
         <v>44942</v>
       </c>
       <c r="X46" s="5" t="inlineStr">
@@ -5220,19 +5316,19 @@
           <t>2022-00044</t>
         </is>
       </c>
-      <c r="S47" s="5" t="n">
+      <c r="S47" s="6" t="n">
         <v>44841</v>
       </c>
-      <c r="T47" s="5" t="n">
+      <c r="T47" s="6" t="n">
         <v>44848</v>
       </c>
-      <c r="U47" s="5" t="n">
+      <c r="U47" s="6" t="n">
         <v>44860</v>
       </c>
-      <c r="V47" s="5" t="n">
+      <c r="V47" s="6" t="n">
         <v>44876</v>
       </c>
-      <c r="W47" s="5" t="n">
+      <c r="W47" s="6" t="n">
         <v>44887</v>
       </c>
       <c r="X47" s="5" t="inlineStr">
@@ -5320,19 +5416,19 @@
           <t>2022-00018</t>
         </is>
       </c>
-      <c r="S48" s="5" t="n">
+      <c r="S48" s="6" t="n">
         <v>44705</v>
       </c>
-      <c r="T48" s="5" t="n">
+      <c r="T48" s="6" t="n">
         <v>44714</v>
       </c>
-      <c r="U48" s="5" t="n">
+      <c r="U48" s="6" t="n">
         <v>44726</v>
       </c>
-      <c r="V48" s="5" t="n">
+      <c r="V48" s="6" t="n">
         <v>44764</v>
       </c>
-      <c r="W48" s="5" t="n">
+      <c r="W48" s="6" t="n">
         <v>44776</v>
       </c>
       <c r="X48" s="5" t="inlineStr">
@@ -5420,19 +5516,19 @@
           <t>2022-00043</t>
         </is>
       </c>
-      <c r="S49" s="5" t="n">
+      <c r="S49" s="6" t="n">
         <v>44841</v>
       </c>
-      <c r="T49" s="5" t="n">
+      <c r="T49" s="6" t="n">
         <v>44848</v>
       </c>
-      <c r="U49" s="5" t="n">
+      <c r="U49" s="6" t="n">
         <v>44860</v>
       </c>
-      <c r="V49" s="5" t="n">
+      <c r="V49" s="6" t="n">
         <v>44876</v>
       </c>
-      <c r="W49" s="5" t="n">
+      <c r="W49" s="6" t="n">
         <v>44887</v>
       </c>
       <c r="X49" s="5" t="inlineStr">
@@ -5520,19 +5616,19 @@
           <t>CY2022-LMS-L1</t>
         </is>
       </c>
-      <c r="S50" s="5" t="n">
+      <c r="S50" s="6" t="n">
         <v>44677</v>
       </c>
-      <c r="T50" s="5" t="n">
+      <c r="T50" s="6" t="n">
         <v>44685</v>
       </c>
-      <c r="U50" s="5" t="n">
+      <c r="U50" s="6" t="n">
         <v>44698</v>
       </c>
-      <c r="V50" s="5" t="n">
+      <c r="V50" s="6" t="n">
         <v>44739</v>
       </c>
-      <c r="W50" s="5" t="n">
+      <c r="W50" s="6" t="n">
         <v>44774</v>
       </c>
       <c r="X50" s="5" t="inlineStr">
@@ -5620,19 +5716,19 @@
           <t>CY2022-LMS-B2-L1</t>
         </is>
       </c>
-      <c r="S51" s="5" t="n">
+      <c r="S51" s="6" t="n">
         <v>44844</v>
       </c>
-      <c r="T51" s="5" t="n">
+      <c r="T51" s="6" t="n">
         <v>44851</v>
       </c>
-      <c r="U51" s="5" t="n">
+      <c r="U51" s="6" t="n">
         <v>44865</v>
       </c>
-      <c r="V51" s="5" t="n">
+      <c r="V51" s="6" t="n">
         <v>44916</v>
       </c>
-      <c r="W51" s="5" t="n">
+      <c r="W51" s="6" t="n">
         <v>44937</v>
       </c>
       <c r="X51" s="5" t="inlineStr">
@@ -5720,19 +5816,19 @@
           <t xml:space="preserve"> CY2022-LMS-B2-L2</t>
         </is>
       </c>
-      <c r="S52" s="5" t="n">
+      <c r="S52" s="6" t="n">
         <v>44844</v>
       </c>
-      <c r="T52" s="5" t="n">
+      <c r="T52" s="6" t="n">
         <v>44851</v>
       </c>
-      <c r="U52" s="5" t="n">
+      <c r="U52" s="6" t="n">
         <v>44865</v>
       </c>
-      <c r="V52" s="5" t="n">
+      <c r="V52" s="6" t="n">
         <v>44916</v>
       </c>
-      <c r="W52" s="5" t="n">
+      <c r="W52" s="6" t="n">
         <v>44937</v>
       </c>
       <c r="X52" s="5" t="inlineStr">
@@ -5820,19 +5916,19 @@
           <t>CY2022-LMS-L2</t>
         </is>
       </c>
-      <c r="S53" s="5" t="n">
+      <c r="S53" s="6" t="n">
         <v>44677</v>
       </c>
-      <c r="T53" s="5" t="n">
+      <c r="T53" s="6" t="n">
         <v>44685</v>
       </c>
-      <c r="U53" s="5" t="n">
+      <c r="U53" s="6" t="n">
         <v>44698</v>
       </c>
-      <c r="V53" s="5" t="n">
+      <c r="V53" s="6" t="n">
         <v>44739</v>
       </c>
-      <c r="W53" s="5" t="n">
+      <c r="W53" s="6" t="n">
         <v>44774</v>
       </c>
       <c r="X53" s="5" t="inlineStr">
@@ -5920,19 +6016,19 @@
           <t>LMS 2023CONSTRUCTION-05</t>
         </is>
       </c>
-      <c r="S54" s="5" t="n">
+      <c r="S54" s="6" t="n">
         <v>45079</v>
       </c>
-      <c r="T54" s="5" t="n">
+      <c r="T54" s="6" t="n">
         <v>45078</v>
       </c>
-      <c r="U54" s="5" t="n">
+      <c r="U54" s="6" t="n">
         <v>45103</v>
       </c>
-      <c r="V54" s="5" t="n">
+      <c r="V54" s="6" t="n">
         <v>45127</v>
       </c>
-      <c r="W54" s="5" t="n">
+      <c r="W54" s="6" t="n">
         <v>45147</v>
       </c>
       <c r="X54" s="5" t="inlineStr">
@@ -6020,20 +6116,30 @@
       <c r="R55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" s="5" t="n">
-        <v>0</v>
+      <c r="S55" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T55" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U55" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V55" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W55" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X55" s="5" t="n">
         <v>0</v>
@@ -6116,20 +6222,30 @@
       <c r="R56" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" s="5" t="n">
-        <v>0</v>
+      <c r="S56" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T56" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U56" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V56" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W56" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X56" s="5" t="n">
         <v>0</v>
@@ -6212,19 +6328,19 @@
           <t>2023-(RVIII)-LEYTE-LOT-1</t>
         </is>
       </c>
-      <c r="S57" s="5" t="n">
+      <c r="S57" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T57" s="5" t="n">
+      <c r="T57" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U57" s="5" t="n">
+      <c r="U57" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V57" s="5" t="n">
+      <c r="V57" s="6" t="n">
         <v>45104</v>
       </c>
-      <c r="W57" s="5" t="n">
+      <c r="W57" s="6" t="n">
         <v>45117</v>
       </c>
       <c r="X57" s="5" t="inlineStr">
@@ -6310,19 +6426,19 @@
           <t>2023-(RVIII)-LEYTE-LOT-2</t>
         </is>
       </c>
-      <c r="S58" s="5" t="n">
+      <c r="S58" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T58" s="5" t="n">
+      <c r="T58" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U58" s="5" t="n">
+      <c r="U58" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V58" s="5" t="n">
+      <c r="V58" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="W58" s="5" t="n">
+      <c r="W58" s="6" t="n">
         <v>45121</v>
       </c>
       <c r="X58" s="5" t="inlineStr">
@@ -6408,19 +6524,19 @@
           <t>2023-(RVIII)-LEYTE-LOT-3</t>
         </is>
       </c>
-      <c r="S59" s="5" t="n">
+      <c r="S59" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T59" s="5" t="n">
+      <c r="T59" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U59" s="5" t="n">
+      <c r="U59" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V59" s="5" t="n">
+      <c r="V59" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="W59" s="5" t="n">
+      <c r="W59" s="6" t="n">
         <v>45121</v>
       </c>
       <c r="X59" s="5" t="inlineStr">
@@ -6506,19 +6622,19 @@
           <t>2023-(RVIII)-LEYTE-LOT-4</t>
         </is>
       </c>
-      <c r="S60" s="5" t="n">
+      <c r="S60" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T60" s="5" t="n">
+      <c r="T60" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U60" s="5" t="n">
+      <c r="U60" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V60" s="5" t="n">
+      <c r="V60" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="W60" s="5" t="n">
+      <c r="W60" s="6" t="n">
         <v>45121</v>
       </c>
       <c r="X60" s="5" t="inlineStr">
@@ -6604,19 +6720,19 @@
           <t>2023-(RVIII)-LEYTE-LOT-5</t>
         </is>
       </c>
-      <c r="S61" s="5" t="n">
+      <c r="S61" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T61" s="5" t="n">
+      <c r="T61" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U61" s="5" t="n">
+      <c r="U61" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V61" s="5" t="n">
+      <c r="V61" s="6" t="n">
         <v>45118</v>
       </c>
-      <c r="W61" s="5" t="n">
+      <c r="W61" s="6" t="n">
         <v>45121</v>
       </c>
       <c r="X61" s="5" t="inlineStr">
@@ -6702,19 +6818,19 @@
           <t>2023-(RVIII)-LEYTE-LOT-6</t>
         </is>
       </c>
-      <c r="S62" s="5" t="n">
+      <c r="S62" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="T62" s="5" t="n">
+      <c r="T62" s="6" t="n">
         <v>45049</v>
       </c>
-      <c r="U62" s="5" t="n">
+      <c r="U62" s="6" t="n">
         <v>45061</v>
       </c>
-      <c r="V62" s="5" t="n">
+      <c r="V62" s="6" t="n">
         <v>45114</v>
       </c>
-      <c r="W62" s="5" t="n">
+      <c r="W62" s="6" t="n">
         <v>45134</v>
       </c>
       <c r="X62" s="5" t="inlineStr">
@@ -6800,19 +6916,19 @@
           <t>CY2023-RVIII-NS-L1</t>
         </is>
       </c>
-      <c r="S63" s="5" t="n">
+      <c r="S63" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="T63" s="5" t="n">
+      <c r="T63" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="U63" s="5" t="n">
+      <c r="U63" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="V63" s="5" t="n">
+      <c r="V63" s="6" t="n">
         <v>45120</v>
       </c>
-      <c r="W63" s="5" t="n">
+      <c r="W63" s="6" t="n">
         <v>45147</v>
       </c>
       <c r="X63" s="5" t="inlineStr">
@@ -6900,19 +7016,19 @@
           <t>CY2023-RVIII-NS-L3</t>
         </is>
       </c>
-      <c r="S64" s="5" t="n">
+      <c r="S64" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="T64" s="5" t="n">
+      <c r="T64" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="U64" s="5" t="n">
+      <c r="U64" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="V64" s="5" t="n">
+      <c r="V64" s="6" t="n">
         <v>45120</v>
       </c>
-      <c r="W64" s="5" t="n">
+      <c r="W64" s="6" t="n">
         <v>45135</v>
       </c>
       <c r="X64" s="5" t="inlineStr">
@@ -7000,19 +7116,19 @@
           <t>CY2024-RVIII-NS-L2</t>
         </is>
       </c>
-      <c r="S65" s="5" t="n">
+      <c r="S65" s="6" t="n">
         <v>45056</v>
       </c>
-      <c r="T65" s="5" t="n">
+      <c r="T65" s="6" t="n">
         <v>45064</v>
       </c>
-      <c r="U65" s="5" t="n">
+      <c r="U65" s="6" t="n">
         <v>45076</v>
       </c>
-      <c r="V65" s="5" t="n">
+      <c r="V65" s="6" t="n">
         <v>45120</v>
       </c>
-      <c r="W65" s="5" t="n">
+      <c r="W65" s="6" t="n">
         <v>45138</v>
       </c>
       <c r="X65" s="5" t="inlineStr">
@@ -7100,19 +7216,19 @@
           <t>2023-019</t>
         </is>
       </c>
-      <c r="S66" s="5" t="n">
+      <c r="S66" s="6" t="n">
         <v>45022</v>
       </c>
-      <c r="T66" s="5" t="n">
+      <c r="T66" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="U66" s="5" t="n">
+      <c r="U66" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="V66" s="5" t="n">
+      <c r="V66" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="W66" s="5" t="n">
+      <c r="W66" s="6" t="n">
         <v>45096</v>
       </c>
       <c r="X66" s="5" t="inlineStr">
@@ -7200,19 +7316,19 @@
           <t>2023-020</t>
         </is>
       </c>
-      <c r="S67" s="5" t="n">
+      <c r="S67" s="6" t="n">
         <v>45022</v>
       </c>
-      <c r="T67" s="5" t="n">
+      <c r="T67" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="U67" s="5" t="n">
+      <c r="U67" s="6" t="n">
         <v>45044</v>
       </c>
-      <c r="V67" s="5" t="n">
+      <c r="V67" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="W67" s="5" t="n">
+      <c r="W67" s="6" t="n">
         <v>45096</v>
       </c>
       <c r="X67" s="5" t="inlineStr">
@@ -7300,19 +7416,19 @@
           <t>CY2023-LMS-L1</t>
         </is>
       </c>
-      <c r="S68" s="5" t="n">
+      <c r="S68" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="T68" s="5" t="n">
+      <c r="T68" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="U68" s="5" t="n">
+      <c r="U68" s="6" t="n">
         <v>45055</v>
       </c>
-      <c r="V68" s="5" t="n">
+      <c r="V68" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="W68" s="5" t="n">
+      <c r="W68" s="6" t="n">
         <v>45141</v>
       </c>
       <c r="X68" s="5" t="inlineStr">
@@ -7400,19 +7516,19 @@
           <t>CY2023-LMS-L2</t>
         </is>
       </c>
-      <c r="S69" s="5" t="n">
+      <c r="S69" s="6" t="n">
         <v>45030</v>
       </c>
-      <c r="T69" s="5" t="n">
+      <c r="T69" s="6" t="n">
         <v>45041</v>
       </c>
-      <c r="U69" s="5" t="n">
+      <c r="U69" s="6" t="n">
         <v>45055</v>
       </c>
-      <c r="V69" s="5" t="n">
+      <c r="V69" s="6" t="n">
         <v>45124</v>
       </c>
-      <c r="W69" s="5" t="n">
+      <c r="W69" s="6" t="n">
         <v>45141</v>
       </c>
       <c r="X69" s="5" t="inlineStr">
@@ -7502,19 +7618,19 @@
           <t>2023-12-I003</t>
         </is>
       </c>
-      <c r="S70" s="5" t="n">
+      <c r="S70" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="T70" s="5" t="n">
+      <c r="T70" s="6" t="n">
         <v>45271</v>
       </c>
-      <c r="U70" s="5" t="n">
+      <c r="U70" s="6" t="n">
         <v>45287</v>
       </c>
-      <c r="V70" s="5" t="n">
+      <c r="V70" s="6" t="n">
         <v>45435</v>
       </c>
-      <c r="W70" s="5" t="n">
+      <c r="W70" s="6" t="n">
         <v>45439</v>
       </c>
       <c r="X70" s="5" t="inlineStr">
@@ -7604,19 +7720,19 @@
           <t>LMS 2023CONSTRUCTION-08</t>
         </is>
       </c>
-      <c r="S71" s="5" t="n">
+      <c r="S71" s="6" t="n">
         <v>45253</v>
       </c>
-      <c r="T71" s="5" t="n">
+      <c r="T71" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="U71" s="5" t="n">
+      <c r="U71" s="6" t="n">
         <v>45279</v>
       </c>
-      <c r="V71" s="5" t="n">
+      <c r="V71" s="6" t="n">
         <v>45293</v>
       </c>
-      <c r="W71" s="5" t="n">
+      <c r="W71" s="6" t="n">
         <v>45450</v>
       </c>
       <c r="X71" s="5" t="inlineStr">
@@ -7706,19 +7822,19 @@
           <t>LMS 2023CONSTRUCTION-07</t>
         </is>
       </c>
-      <c r="S72" s="5" t="n">
+      <c r="S72" s="6" t="n">
         <v>45253</v>
       </c>
-      <c r="T72" s="5" t="n">
+      <c r="T72" s="6" t="n">
         <v>45265</v>
       </c>
-      <c r="U72" s="5" t="n">
+      <c r="U72" s="6" t="n">
         <v>45279</v>
       </c>
-      <c r="V72" s="5" t="n">
+      <c r="V72" s="6" t="n">
         <v>45293</v>
       </c>
-      <c r="W72" s="5" t="n">
+      <c r="W72" s="6" t="n">
         <v>45446</v>
       </c>
       <c r="X72" s="5" t="inlineStr">
@@ -7810,19 +7926,19 @@
           <t>CY2024-LMS-BOR-01</t>
         </is>
       </c>
-      <c r="S73" s="5" t="n">
+      <c r="S73" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="T73" s="5" t="n">
+      <c r="T73" s="6" t="n">
         <v>45222</v>
       </c>
-      <c r="U73" s="5" t="n">
+      <c r="U73" s="6" t="n">
         <v>45237</v>
       </c>
-      <c r="V73" s="5" t="n">
+      <c r="V73" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="W73" s="5" t="n">
+      <c r="W73" s="6" t="n">
         <v>45419</v>
       </c>
       <c r="X73" s="5" t="inlineStr">
@@ -7912,19 +8028,19 @@
           <t>CY2024-LMS-BOR-02</t>
         </is>
       </c>
-      <c r="S74" s="5" t="n">
+      <c r="S74" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="T74" s="5" t="n">
+      <c r="T74" s="6" t="n">
         <v>45222</v>
       </c>
-      <c r="U74" s="5" t="n">
+      <c r="U74" s="6" t="n">
         <v>45237</v>
       </c>
-      <c r="V74" s="5" t="n">
+      <c r="V74" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="W74" s="5" t="n">
+      <c r="W74" s="6" t="n">
         <v>45419</v>
       </c>
       <c r="X74" s="5" t="inlineStr">
@@ -8014,19 +8130,19 @@
           <t>CY2024-LMS-BOR-03</t>
         </is>
       </c>
-      <c r="S75" s="5" t="n">
+      <c r="S75" s="6" t="n">
         <v>45211</v>
       </c>
-      <c r="T75" s="5" t="n">
+      <c r="T75" s="6" t="n">
         <v>45222</v>
       </c>
-      <c r="U75" s="5" t="n">
+      <c r="U75" s="6" t="n">
         <v>45237</v>
       </c>
-      <c r="V75" s="5" t="n">
+      <c r="V75" s="6" t="n">
         <v>45257</v>
       </c>
-      <c r="W75" s="5" t="n">
+      <c r="W75" s="6" t="n">
         <v>45419</v>
       </c>
       <c r="X75" s="5" t="inlineStr">
@@ -8118,19 +8234,19 @@
           <t>2024-021</t>
         </is>
       </c>
-      <c r="S76" s="5" t="n">
+      <c r="S76" s="6" t="n">
         <v>45419</v>
       </c>
-      <c r="T76" s="5" t="n">
+      <c r="T76" s="6" t="n">
         <v>45427</v>
       </c>
-      <c r="U76" s="5" t="n">
+      <c r="U76" s="6" t="n">
         <v>45439</v>
       </c>
-      <c r="V76" s="5" t="n">
+      <c r="V76" s="6" t="n">
         <v>45461</v>
       </c>
-      <c r="W76" s="5" t="n">
+      <c r="W76" s="6" t="n">
         <v>45580</v>
       </c>
       <c r="X76" s="5" t="inlineStr">
@@ -8222,19 +8338,19 @@
           <t>CY2024-LMS-ES-L1</t>
         </is>
       </c>
-      <c r="S77" s="5" t="n">
+      <c r="S77" s="6" t="n">
         <v>45212</v>
       </c>
-      <c r="T77" s="5" t="n">
+      <c r="T77" s="6" t="n">
         <v>45223</v>
       </c>
-      <c r="U77" s="5" t="n">
+      <c r="U77" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="V77" s="5" t="n">
+      <c r="V77" s="6" t="n">
         <v>45414</v>
       </c>
-      <c r="W77" s="5" t="n">
+      <c r="W77" s="6" t="n">
         <v>45419</v>
       </c>
       <c r="X77" s="5" t="inlineStr">
@@ -8322,19 +8438,19 @@
           <t>CY2024 BEFF_LAST MILE SCHOOLS PROGRAM_LOT No.1</t>
         </is>
       </c>
-      <c r="S78" s="5" t="n">
+      <c r="S78" s="6" t="n">
         <v>45448</v>
       </c>
-      <c r="T78" s="5" t="n">
+      <c r="T78" s="6" t="n">
         <v>45456</v>
       </c>
-      <c r="U78" s="5" t="n">
+      <c r="U78" s="6" t="n">
         <v>45468</v>
       </c>
-      <c r="V78" s="5" t="n">
+      <c r="V78" s="6" t="n">
         <v>45492</v>
       </c>
-      <c r="W78" s="5" t="n">
+      <c r="W78" s="6" t="n">
         <v>45533</v>
       </c>
       <c r="X78" s="5" t="inlineStr">
@@ -8422,19 +8538,19 @@
           <t>CY 2024 LAST MILE SCHOOLS_Lot No.3</t>
         </is>
       </c>
-      <c r="S79" s="5" t="n">
+      <c r="S79" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="T79" s="5" t="n">
+      <c r="T79" s="6" t="n">
         <v>45247</v>
       </c>
-      <c r="U79" s="5" t="n">
+      <c r="U79" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V79" s="5" t="n">
+      <c r="V79" s="6" t="n">
         <v>45440</v>
       </c>
-      <c r="W79" s="5" t="n">
+      <c r="W79" s="6" t="n">
         <v>45454</v>
       </c>
       <c r="X79" s="5" t="inlineStr">
@@ -8524,19 +8640,19 @@
           <t>CY 2024 LAST MILE SCHOOLS_Lot No.1</t>
         </is>
       </c>
-      <c r="S80" s="5" t="n">
+      <c r="S80" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="T80" s="5" t="n">
+      <c r="T80" s="6" t="n">
         <v>45247</v>
       </c>
-      <c r="U80" s="5" t="n">
+      <c r="U80" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V80" s="5" t="n">
+      <c r="V80" s="6" t="n">
         <v>45345</v>
       </c>
-      <c r="W80" s="5" t="n">
+      <c r="W80" s="6" t="n">
         <v>45454</v>
       </c>
       <c r="X80" s="5" t="inlineStr">
@@ -8624,19 +8740,19 @@
           <t>CY 2024 LAST MILE SCHOOLS_Lot No.2</t>
         </is>
       </c>
-      <c r="S81" s="5" t="n">
+      <c r="S81" s="6" t="n">
         <v>45239</v>
       </c>
-      <c r="T81" s="5" t="n">
+      <c r="T81" s="6" t="n">
         <v>45247</v>
       </c>
-      <c r="U81" s="5" t="n">
+      <c r="U81" s="6" t="n">
         <v>45264</v>
       </c>
-      <c r="V81" s="5" t="n">
+      <c r="V81" s="6" t="n">
         <v>45327</v>
       </c>
-      <c r="W81" s="5" t="n">
+      <c r="W81" s="6" t="n">
         <v>45439</v>
       </c>
       <c r="X81" s="5" t="inlineStr">
@@ -8722,19 +8838,19 @@
           <t>INFRA-2024-01</t>
         </is>
       </c>
-      <c r="S82" s="5" t="n">
+      <c r="S82" s="6" t="n">
         <v>45349</v>
       </c>
-      <c r="T82" s="5" t="n">
+      <c r="T82" s="6" t="n">
         <v>45363</v>
       </c>
-      <c r="U82" s="5" t="n">
+      <c r="U82" s="6" t="n">
         <v>45378</v>
       </c>
-      <c r="V82" s="5" t="n">
+      <c r="V82" s="6" t="n">
         <v>45439</v>
       </c>
-      <c r="W82" s="5" t="n">
+      <c r="W82" s="6" t="n">
         <v>45502</v>
       </c>
       <c r="X82" s="5" t="inlineStr">
@@ -8826,19 +8942,19 @@
           <t>CY2024-RVIII-NS-L1</t>
         </is>
       </c>
-      <c r="S83" s="5" t="n">
+      <c r="S83" s="6" t="n">
         <v>45230</v>
       </c>
-      <c r="T83" s="5" t="n">
+      <c r="T83" s="6" t="n">
         <v>45237</v>
       </c>
-      <c r="U83" s="5" t="n">
+      <c r="U83" s="6" t="n">
         <v>45258</v>
       </c>
-      <c r="V83" s="5" t="n">
+      <c r="V83" s="6" t="n">
         <v>45523</v>
       </c>
-      <c r="W83" s="5" t="n">
+      <c r="W83" s="6" t="n">
         <v>45589</v>
       </c>
       <c r="X83" s="5" t="inlineStr">
@@ -8932,20 +9048,24 @@
           <t>CY2024-RVIII-NS-L2</t>
         </is>
       </c>
-      <c r="S84" s="5" t="n">
+      <c r="S84" s="6" t="n">
         <v>45472</v>
       </c>
-      <c r="T84" s="5" t="n">
+      <c r="T84" s="6" t="n">
         <v>45481</v>
       </c>
-      <c r="U84" s="5" t="n">
+      <c r="U84" s="6" t="n">
         <v>45495</v>
       </c>
-      <c r="V84" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" s="5" t="n">
-        <v>0</v>
+      <c r="V84" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W84" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="X84" s="5" t="n">
         <v>0</v>
@@ -9032,19 +9152,19 @@
           <t>2024-004</t>
         </is>
       </c>
-      <c r="S85" s="5" t="n">
+      <c r="S85" s="6" t="n">
         <v>45224</v>
       </c>
-      <c r="T85" s="5" t="n">
+      <c r="T85" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="U85" s="5" t="n">
+      <c r="U85" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="V85" s="5" t="n">
+      <c r="V85" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="W85" s="5" t="n">
+      <c r="W85" s="6" t="n">
         <v>45426</v>
       </c>
       <c r="X85" s="5" t="inlineStr">
@@ -9134,19 +9254,19 @@
           <t>2024-005</t>
         </is>
       </c>
-      <c r="S86" s="5" t="n">
+      <c r="S86" s="6" t="n">
         <v>45224</v>
       </c>
-      <c r="T86" s="5" t="n">
+      <c r="T86" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="U86" s="5" t="n">
+      <c r="U86" s="6" t="n">
         <v>45261</v>
       </c>
-      <c r="V86" s="5" t="n">
+      <c r="V86" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="W86" s="5" t="n">
+      <c r="W86" s="6" t="n">
         <v>45426</v>
       </c>
       <c r="X86" s="5" t="inlineStr">
@@ -9236,19 +9356,19 @@
           <t>CY2024-LMS-L1</t>
         </is>
       </c>
-      <c r="S87" s="5" t="n">
+      <c r="S87" s="6" t="n">
         <v>45219</v>
       </c>
-      <c r="T87" s="5" t="n">
+      <c r="T87" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="U87" s="5" t="n">
+      <c r="U87" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="V87" s="5" t="n">
+      <c r="V87" s="6" t="n">
         <v>45309</v>
       </c>
-      <c r="W87" s="5" t="n">
+      <c r="W87" s="6" t="n">
         <v>45456</v>
       </c>
       <c r="X87" s="5" t="inlineStr">
@@ -9338,19 +9458,19 @@
           <t>CY2024-LMS-L2</t>
         </is>
       </c>
-      <c r="S88" s="5" t="n">
+      <c r="S88" s="6" t="n">
         <v>45219</v>
       </c>
-      <c r="T88" s="5" t="n">
+      <c r="T88" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="U88" s="5" t="n">
+      <c r="U88" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="V88" s="5" t="n">
+      <c r="V88" s="6" t="n">
         <v>45309</v>
       </c>
-      <c r="W88" s="5" t="n">
+      <c r="W88" s="6" t="n">
         <v>45456</v>
       </c>
       <c r="X88" s="5" t="inlineStr">
@@ -9440,19 +9560,19 @@
           <t>CY2024-LMS-L3</t>
         </is>
       </c>
-      <c r="S89" s="5" t="n">
+      <c r="S89" s="6" t="n">
         <v>45219</v>
       </c>
-      <c r="T89" s="5" t="n">
+      <c r="T89" s="6" t="n">
         <v>45226</v>
       </c>
-      <c r="U89" s="5" t="n">
+      <c r="U89" s="6" t="n">
         <v>45238</v>
       </c>
-      <c r="V89" s="5" t="n">
+      <c r="V89" s="6" t="n">
         <v>45309</v>
       </c>
-      <c r="W89" s="5" t="n">
+      <c r="W89" s="6" t="n">
         <v>45456</v>
       </c>
       <c r="X89" s="5" t="inlineStr">
